--- a/Documentation/Journaux/OwnJournal de bord (2).xlsx
+++ b/Documentation/Journaux/OwnJournal de bord (2).xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="62">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -209,6 +209,12 @@
   </si>
   <si>
     <t>debug + implémentation</t>
+  </si>
+  <si>
+    <t>début implémentation de la partie authentification</t>
+  </si>
+  <si>
+    <t>petit bug à corriger</t>
   </si>
 </sst>
 </file>
@@ -1060,8 +1066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView topLeftCell="E20" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView topLeftCell="E19" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="29.44140625" defaultRowHeight="41.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1511,12 +1517,24 @@
       </c>
     </row>
     <row r="25" spans="2:7" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="27"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="36"/>
+      <c r="B25" s="27">
+        <v>44273</v>
+      </c>
+      <c r="C25" s="42">
+        <v>4</v>
+      </c>
+      <c r="D25" s="34">
+        <v>1.5</v>
+      </c>
+      <c r="E25" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25" s="36" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="26" spans="2:7" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="27"/>
@@ -1661,8 +1679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B18" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="B20" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="29.33203125" defaultRowHeight="48" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2042,9 +2060,15 @@
       <c r="B24" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="44"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="7"/>
+      <c r="C24" s="44">
+        <v>44273</v>
+      </c>
+      <c r="D24" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>61</v>
+      </c>
       <c r="F24" s="45" t="s">
         <v>25</v>
       </c>

--- a/Documentation/Journaux/OwnJournal de bord (2).xlsx
+++ b/Documentation/Journaux/OwnJournal de bord (2).xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arlindo.TAVARES-VARE\Bataille-Navale-2021\Documentation\Journaux\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\developpement\Bataille-Navale-2021\Documentation\Journaux\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19368" windowHeight="9192" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19365" windowHeight="9195"/>
   </bookViews>
   <sheets>
     <sheet name="Journal de travail" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="71">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -215,6 +215,33 @@
   </si>
   <si>
     <t>petit bug à corriger</t>
+  </si>
+  <si>
+    <t>Ma-20</t>
+  </si>
+  <si>
+    <t>continue implémentation de la partie authentification</t>
+  </si>
+  <si>
+    <t>implémentation authentification</t>
+  </si>
+  <si>
+    <t>blocage sur comment avancer</t>
+  </si>
+  <si>
+    <t>Consultation Open classRooms à propos lecture/ecriture sur fichiers (logs)</t>
+  </si>
+  <si>
+    <t>tests pour fichiers logs</t>
+  </si>
+  <si>
+    <t>réflexion et test implémentation fichiers log</t>
+  </si>
+  <si>
+    <t>arrive pas à implémenter fonction pour fichiers logs correctement, crée eerreurs…</t>
+  </si>
+  <si>
+    <t>implémentation + documentation</t>
   </si>
 </sst>
 </file>
@@ -387,7 +414,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -586,21 +613,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -641,9 +659,6 @@
     <xf numFmtId="14" fontId="0" fillId="15" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -735,7 +750,6 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -769,6 +783,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Neutre" xfId="1" builtinId="28"/>
@@ -1066,37 +1081,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView topLeftCell="E19" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="29.44140625" defaultRowHeight="41.25" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="29.42578125" defaultRowHeight="41.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="6" width="74" customWidth="1"/>
-    <col min="7" max="7" width="87.44140625" customWidth="1"/>
+    <col min="7" max="7" width="87.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="53" t="s">
+    <row r="1" spans="1:8" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="55"/>
-    </row>
-    <row r="2" spans="1:8" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="53"/>
+    </row>
+    <row r="2" spans="1:8" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="20" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="10" t="s">
@@ -1106,553 +1121,659 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="12">
         <v>44242</v>
       </c>
-      <c r="C3" s="41">
+      <c r="C3" s="40">
         <v>1</v>
       </c>
-      <c r="D3" s="31">
+      <c r="D3" s="30">
         <v>0.5</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="16" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="13">
         <v>44244</v>
       </c>
-      <c r="C4" s="41">
+      <c r="C4" s="40">
         <v>1</v>
       </c>
-      <c r="D4" s="23">
+      <c r="D4" s="22">
         <v>1.5</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="17" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="13">
         <v>44244</v>
       </c>
-      <c r="C5" s="41">
+      <c r="C5" s="40">
         <v>1</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="22">
         <v>0.75</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="17" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="13">
         <v>44245</v>
       </c>
-      <c r="C6" s="41">
+      <c r="C6" s="40">
         <v>1</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="22">
         <v>1.75</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="17" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="13">
         <v>44246</v>
       </c>
-      <c r="C7" s="41">
+      <c r="C7" s="40">
         <v>1</v>
       </c>
-      <c r="D7" s="23">
+      <c r="D7" s="22">
         <v>1.3</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="18"/>
-    </row>
-    <row r="8" spans="1:8" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G7" s="17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="13">
         <v>44256</v>
       </c>
-      <c r="C8" s="41">
+      <c r="C8" s="40">
         <v>2</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8" s="22">
         <v>2.5</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="G8" s="17" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="13">
         <v>44257</v>
       </c>
-      <c r="C9" s="41">
+      <c r="C9" s="40">
         <v>2</v>
       </c>
-      <c r="D9" s="23">
+      <c r="D9" s="22">
         <v>0.75</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="18"/>
-    </row>
-    <row r="10" spans="1:8" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G9" s="17"/>
+    </row>
+    <row r="10" spans="1:8" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="13">
         <v>44258</v>
       </c>
-      <c r="C10" s="41">
+      <c r="C10" s="40">
         <v>2</v>
       </c>
-      <c r="D10" s="23">
+      <c r="D10" s="22">
         <v>1.5</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="18"/>
-    </row>
-    <row r="11" spans="1:8" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F10" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="17"/>
+    </row>
+    <row r="11" spans="1:8" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="13">
         <v>44258</v>
       </c>
-      <c r="C11" s="41">
+      <c r="C11" s="40">
         <v>2</v>
       </c>
-      <c r="D11" s="23">
+      <c r="D11" s="22">
         <v>0.75</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="E11" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="G11" s="18"/>
-    </row>
-    <row r="12" spans="1:8" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G11" s="17"/>
+    </row>
+    <row r="12" spans="1:8" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="13">
         <v>44259</v>
       </c>
-      <c r="C12" s="41">
+      <c r="C12" s="40">
         <v>2</v>
       </c>
-      <c r="D12" s="23">
+      <c r="D12" s="22">
         <v>2</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="G12" s="18"/>
-    </row>
-    <row r="13" spans="1:8" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="27">
+      <c r="G12" s="17"/>
+    </row>
+    <row r="13" spans="1:8" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="26">
         <v>44260</v>
       </c>
-      <c r="C13" s="42">
+      <c r="C13" s="41">
         <v>2</v>
       </c>
-      <c r="D13" s="23">
+      <c r="D13" s="22">
         <v>2</v>
       </c>
-      <c r="E13" s="22" t="s">
+      <c r="E13" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="F13" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="G13" s="18"/>
-    </row>
-    <row r="14" spans="1:8" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="28"/>
-      <c r="B14" s="27">
+      <c r="G13" s="17"/>
+    </row>
+    <row r="14" spans="1:8" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="27"/>
+      <c r="B14" s="26">
         <v>44261</v>
       </c>
-      <c r="C14" s="41">
+      <c r="C14" s="40">
         <v>2</v>
       </c>
-      <c r="D14" s="23">
+      <c r="D14" s="22">
         <v>2.5</v>
       </c>
-      <c r="E14" s="22"/>
-      <c r="F14" s="16" t="s">
+      <c r="E14" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="32"/>
+      <c r="G14" s="31"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="27">
+    <row r="15" spans="1:8" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="26">
         <v>44262</v>
       </c>
-      <c r="C15" s="43">
+      <c r="C15" s="42">
         <v>2</v>
       </c>
-      <c r="D15" s="29">
+      <c r="D15" s="28">
         <v>4</v>
       </c>
-      <c r="E15" s="22" t="s">
+      <c r="E15" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="16" t="s">
+      <c r="F15" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="G15" s="33"/>
-    </row>
-    <row r="16" spans="1:8" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="27">
+      <c r="G15" s="32"/>
+    </row>
+    <row r="16" spans="1:8" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="26">
         <v>44263</v>
       </c>
-      <c r="C16" s="41">
+      <c r="C16" s="40">
         <v>3</v>
       </c>
-      <c r="D16" s="23">
+      <c r="D16" s="22">
         <v>5</v>
       </c>
-      <c r="E16" s="22" t="s">
+      <c r="E16" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="F16" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="G16" s="32"/>
-    </row>
-    <row r="17" spans="2:7" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="27">
+      <c r="G16" s="31"/>
+    </row>
+    <row r="17" spans="2:7" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="26">
         <v>44264</v>
       </c>
-      <c r="C17" s="41">
+      <c r="C17" s="40">
         <v>3</v>
       </c>
-      <c r="D17" s="23">
+      <c r="D17" s="22">
         <v>2</v>
       </c>
-      <c r="E17" s="22" t="s">
+      <c r="E17" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="F17" s="16" t="s">
+      <c r="F17" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="G17" s="32"/>
-    </row>
-    <row r="18" spans="2:7" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="27">
+      <c r="G17" s="31"/>
+    </row>
+    <row r="18" spans="2:7" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="26">
         <v>44265</v>
       </c>
-      <c r="C18" s="41">
+      <c r="C18" s="40">
         <v>3</v>
       </c>
-      <c r="D18" s="23">
+      <c r="D18" s="22">
         <v>4</v>
       </c>
-      <c r="E18" s="22" t="s">
+      <c r="E18" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="F18" s="16" t="s">
+      <c r="F18" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="G18" s="32"/>
-    </row>
-    <row r="19" spans="2:7" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="27">
+      <c r="G18" s="31"/>
+    </row>
+    <row r="19" spans="2:7" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="26">
         <v>44266</v>
       </c>
-      <c r="C19" s="41">
+      <c r="C19" s="40">
         <v>3</v>
       </c>
-      <c r="D19" s="23">
+      <c r="D19" s="22">
         <v>5</v>
       </c>
-      <c r="E19" s="22" t="s">
+      <c r="E19" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="16" t="s">
+      <c r="F19" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="G19" s="32"/>
-    </row>
-    <row r="20" spans="2:7" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="27">
+      <c r="G19" s="31"/>
+    </row>
+    <row r="20" spans="2:7" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="26">
         <v>44267</v>
       </c>
-      <c r="C20" s="41">
+      <c r="C20" s="40">
         <v>3</v>
       </c>
-      <c r="D20" s="23">
+      <c r="D20" s="22">
         <v>4</v>
       </c>
-      <c r="E20" s="22" t="s">
+      <c r="E20" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="16" t="s">
+      <c r="F20" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="G20" s="32"/>
-    </row>
-    <row r="21" spans="2:7" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G20" s="31"/>
+    </row>
+    <row r="21" spans="2:7" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="13">
         <v>44268</v>
       </c>
-      <c r="C21" s="41">
+      <c r="C21" s="40">
         <v>4</v>
       </c>
-      <c r="D21" s="23">
+      <c r="D21" s="22">
         <v>1</v>
       </c>
-      <c r="E21" s="22" t="s">
+      <c r="E21" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="F21" s="16" t="s">
+      <c r="F21" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="G21" s="32" t="s">
+      <c r="G21" s="31" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:7" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="13">
         <v>44271</v>
       </c>
-      <c r="C22" s="41">
+      <c r="C22" s="40">
         <v>4</v>
       </c>
-      <c r="D22" s="23">
+      <c r="D22" s="22">
         <v>3</v>
       </c>
-      <c r="E22" s="22" t="s">
+      <c r="E22" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="16" t="s">
+      <c r="F22" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="G22" s="32"/>
-    </row>
-    <row r="23" spans="2:7" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G22" s="31"/>
+    </row>
+    <row r="23" spans="2:7" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="13">
         <v>44272</v>
       </c>
-      <c r="C23" s="42">
+      <c r="C23" s="41">
         <v>4</v>
       </c>
-      <c r="D23" s="23"/>
-      <c r="E23" s="22" t="s">
+      <c r="D23" s="22">
+        <v>2.5</v>
+      </c>
+      <c r="E23" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F23" s="35" t="s">
+      <c r="F23" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="G23" s="36" t="s">
+      <c r="G23" s="35" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="2:7" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="27">
+    <row r="24" spans="2:7" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="26">
         <v>44272</v>
       </c>
-      <c r="C24" s="42">
+      <c r="C24" s="41">
         <v>4</v>
       </c>
-      <c r="D24" s="34">
+      <c r="D24" s="33">
         <v>1.5</v>
       </c>
-      <c r="E24" s="22" t="s">
+      <c r="E24" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="35" t="s">
+      <c r="F24" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="G24" s="36" t="s">
+      <c r="G24" s="35" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="27">
+    <row r="25" spans="2:7" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="26">
         <v>44273</v>
       </c>
-      <c r="C25" s="42">
+      <c r="C25" s="41">
         <v>4</v>
       </c>
-      <c r="D25" s="34">
+      <c r="D25" s="33">
         <v>1.5</v>
       </c>
-      <c r="E25" s="22" t="s">
+      <c r="E25" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="F25" s="35" t="s">
+      <c r="F25" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="G25" s="36" t="s">
+      <c r="G25" s="35" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="2:7" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="27"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="36"/>
-    </row>
-    <row r="27" spans="2:7" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="27"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="36"/>
-    </row>
-    <row r="28" spans="2:7" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="27"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="36"/>
-    </row>
-    <row r="29" spans="2:7" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="27"/>
-      <c r="C29" s="42"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="36"/>
-    </row>
-    <row r="30" spans="2:7" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="27"/>
-      <c r="C30" s="42"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="36"/>
-    </row>
-    <row r="31" spans="2:7" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="27"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="36"/>
-    </row>
-    <row r="32" spans="2:7" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="27"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="36"/>
-    </row>
-    <row r="33" spans="1:7" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="27"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="35"/>
-      <c r="G33" s="36"/>
-    </row>
-    <row r="34" spans="1:7" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="27"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="35"/>
-      <c r="G34" s="36"/>
-    </row>
-    <row r="35" spans="1:7" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="27"/>
-      <c r="C35" s="42"/>
-      <c r="D35" s="34"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="35"/>
-      <c r="G35" s="36"/>
-    </row>
-    <row r="36" spans="1:7" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="27"/>
-      <c r="C36" s="42"/>
-      <c r="D36" s="34"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="35"/>
-      <c r="G36" s="36"/>
-    </row>
-    <row r="37" spans="1:7" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="27"/>
-      <c r="C37" s="42"/>
-      <c r="D37" s="34"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="36"/>
-    </row>
-    <row r="38" spans="1:7" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="27"/>
-      <c r="C38" s="42"/>
-      <c r="D38" s="34"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="35"/>
-      <c r="G38" s="36"/>
-    </row>
-    <row r="39" spans="1:7" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="46"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="47"/>
-      <c r="D39" s="48"/>
-      <c r="E39" s="49"/>
-      <c r="F39" s="50"/>
-      <c r="G39" s="51"/>
-    </row>
-    <row r="41" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="37"/>
-      <c r="C41" s="37"/>
-      <c r="D41" s="38"/>
+    <row r="26" spans="2:7" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="26">
+        <v>44274</v>
+      </c>
+      <c r="C26" s="41">
+        <v>4</v>
+      </c>
+      <c r="D26" s="33">
+        <v>1.5</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="G26" s="35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="26">
+        <v>44275</v>
+      </c>
+      <c r="C27" s="41">
+        <v>4</v>
+      </c>
+      <c r="D27" s="33">
+        <v>1</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="G27" s="35" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="26">
+        <v>44276</v>
+      </c>
+      <c r="C28" s="41">
+        <v>4</v>
+      </c>
+      <c r="D28" s="33">
+        <v>0.75</v>
+      </c>
+      <c r="E28" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="G28" s="35" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="26">
+        <v>44277</v>
+      </c>
+      <c r="C29" s="41">
+        <v>5</v>
+      </c>
+      <c r="D29" s="33">
+        <v>0.75</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="G29" s="35" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="26">
+        <v>44278</v>
+      </c>
+      <c r="C30" s="41">
+        <v>5</v>
+      </c>
+      <c r="D30" s="33"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="35"/>
+    </row>
+    <row r="31" spans="2:7" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="26">
+        <v>44279</v>
+      </c>
+      <c r="C31" s="41">
+        <v>5</v>
+      </c>
+      <c r="D31" s="33"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="35"/>
+    </row>
+    <row r="32" spans="2:7" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="26">
+        <v>44280</v>
+      </c>
+      <c r="C32" s="41">
+        <v>5</v>
+      </c>
+      <c r="D32" s="33"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="35"/>
+    </row>
+    <row r="33" spans="1:7" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="26">
+        <v>44281</v>
+      </c>
+      <c r="C33" s="41">
+        <v>5</v>
+      </c>
+      <c r="D33" s="33"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="35"/>
+    </row>
+    <row r="34" spans="1:7" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="26">
+        <v>44282</v>
+      </c>
+      <c r="C34" s="41">
+        <v>5</v>
+      </c>
+      <c r="D34" s="33"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="35"/>
+    </row>
+    <row r="35" spans="1:7" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="26">
+        <v>44283</v>
+      </c>
+      <c r="C35" s="41">
+        <v>5</v>
+      </c>
+      <c r="D35" s="33"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="35"/>
+    </row>
+    <row r="36" spans="1:7" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="26">
+        <v>44284</v>
+      </c>
+      <c r="C36" s="41">
+        <v>6</v>
+      </c>
+      <c r="D36" s="33"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="35"/>
+    </row>
+    <row r="37" spans="1:7" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="26">
+        <v>44285</v>
+      </c>
+      <c r="C37" s="41">
+        <v>6</v>
+      </c>
+      <c r="D37" s="33"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="35"/>
+    </row>
+    <row r="38" spans="1:7" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="26">
+        <v>44286</v>
+      </c>
+      <c r="C38" s="41">
+        <v>6</v>
+      </c>
+      <c r="D38" s="33"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="34"/>
+      <c r="G38" s="35"/>
+    </row>
+    <row r="39" spans="1:7" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="56"/>
+      <c r="B39" s="26">
+        <v>44287</v>
+      </c>
+      <c r="C39" s="45">
+        <v>6</v>
+      </c>
+      <c r="D39" s="46"/>
+      <c r="E39" s="47"/>
+      <c r="F39" s="48"/>
+      <c r="G39" s="49"/>
+    </row>
+    <row r="40" spans="1:7" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="43">
+        <v>44288</v>
+      </c>
+      <c r="C40" s="45">
+        <v>6</v>
+      </c>
+      <c r="D40" s="46"/>
+      <c r="E40" s="47"/>
+      <c r="F40" s="48"/>
+      <c r="G40" s="49"/>
+    </row>
+    <row r="41" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="36"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1667,7 +1788,7 @@
           <x14:formula1>
             <xm:f>'type de tâches'!$A$2:$A$9</xm:f>
           </x14:formula1>
-          <xm:sqref>E3:E39</xm:sqref>
+          <xm:sqref>E3:E40</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1677,32 +1798,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F32"/>
+  <dimension ref="B1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B20" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="29.33203125" defaultRowHeight="48" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="29.28515625" defaultRowHeight="48" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="57.109375" customWidth="1"/>
-    <col min="5" max="5" width="48.33203125" customWidth="1"/>
+    <col min="4" max="4" width="57.140625" customWidth="1"/>
+    <col min="5" max="5" width="48.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="56" t="s">
+    <row r="1" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="57"/>
-    </row>
-    <row r="2" spans="2:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="20" t="s">
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="55"/>
+    </row>
+    <row r="2" spans="2:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -1715,31 +1836,31 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C3" s="12">
         <v>44242</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="21" t="s">
         <v>34</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C4" s="13">
         <v>44244</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="24" t="s">
         <v>29</v>
       </c>
       <c r="E4" s="6" t="s">
@@ -1749,14 +1870,14 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C5" s="13">
         <v>44244</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="24" t="s">
         <v>32</v>
       </c>
       <c r="E5" s="6" t="s">
@@ -1766,14 +1887,14 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C6" s="13">
         <v>44273</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="24" t="s">
         <v>40</v>
       </c>
       <c r="E6" s="6" t="s">
@@ -1783,14 +1904,14 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C7" s="13">
         <v>44274</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="24" t="s">
         <v>36</v>
       </c>
       <c r="E7" s="6" t="s">
@@ -1800,14 +1921,14 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C8" s="13">
         <v>44255</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="24" t="s">
         <v>38</v>
       </c>
       <c r="E8" s="6" t="s">
@@ -1817,14 +1938,14 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C9" s="13">
         <v>44256</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="24" t="s">
         <v>31</v>
       </c>
       <c r="E9" s="6" t="s">
@@ -1834,27 +1955,27 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C10" s="13">
         <v>44257</v>
       </c>
-      <c r="D10" s="25"/>
+      <c r="D10" s="24"/>
       <c r="E10" s="6"/>
       <c r="F10" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C11" s="13">
         <v>3</v>
       </c>
-      <c r="D11" s="25"/>
+      <c r="D11" s="24"/>
       <c r="E11" s="6" t="s">
         <v>10</v>
       </c>
@@ -1862,14 +1983,14 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C12" s="13">
         <v>44259</v>
       </c>
-      <c r="D12" s="25" t="s">
+      <c r="D12" s="24" t="s">
         <v>45</v>
       </c>
       <c r="E12" s="6" t="s">
@@ -1879,14 +2000,14 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="44">
+      <c r="C13" s="43">
         <v>44260</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="25" t="s">
         <v>38</v>
       </c>
       <c r="E13" s="7"/>
@@ -1894,29 +2015,29 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="44">
+      <c r="C14" s="43">
         <v>44261</v>
       </c>
-      <c r="D14" s="26" t="s">
-        <v>38</v>
+      <c r="D14" s="25" t="s">
+        <v>70</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="44">
+      <c r="C15" s="43">
         <v>44262</v>
       </c>
-      <c r="D15" s="52" t="s">
+      <c r="D15" s="50" t="s">
         <v>37</v>
       </c>
       <c r="E15" s="7" t="s">
@@ -1926,14 +2047,14 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="44">
+      <c r="C16" s="43">
         <v>44263</v>
       </c>
-      <c r="D16" s="26" t="s">
+      <c r="D16" s="25" t="s">
         <v>38</v>
       </c>
       <c r="E16" s="7"/>
@@ -1941,14 +2062,14 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="44">
+      <c r="C17" s="43">
         <v>44264</v>
       </c>
-      <c r="D17" s="26" t="s">
+      <c r="D17" s="25" t="s">
         <v>44</v>
       </c>
       <c r="E17" s="7"/>
@@ -1956,14 +2077,14 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="44">
+      <c r="C18" s="43">
         <v>44265</v>
       </c>
-      <c r="D18" s="26" t="s">
+      <c r="D18" s="25" t="s">
         <v>46</v>
       </c>
       <c r="E18" s="7"/>
@@ -1971,14 +2092,14 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="44">
+      <c r="C19" s="43">
         <v>44266</v>
       </c>
-      <c r="D19" s="26" t="s">
+      <c r="D19" s="25" t="s">
         <v>47</v>
       </c>
       <c r="E19" s="7" t="s">
@@ -1988,138 +2109,255 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="44">
+      <c r="C20" s="43">
         <v>44267</v>
       </c>
-      <c r="D20" s="26" t="s">
+      <c r="D20" s="25" t="s">
         <v>49</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="45" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F20" s="44" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="44">
+      <c r="C21" s="43">
         <v>44268</v>
       </c>
-      <c r="D21" s="26" t="s">
+      <c r="D21" s="25" t="s">
         <v>51</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F21" s="45" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F21" s="44" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="44">
+      <c r="C22" s="43">
         <v>44271</v>
       </c>
-      <c r="D22" s="26" t="s">
+      <c r="D22" s="25" t="s">
         <v>50</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F22" s="45" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F22" s="44" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="44">
+      <c r="C23" s="43">
         <v>44272</v>
       </c>
-      <c r="D23" s="26" t="s">
+      <c r="D23" s="25" t="s">
         <v>55</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F23" s="45" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F23" s="44" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="44">
+      <c r="C24" s="43">
         <v>44273</v>
       </c>
-      <c r="D24" s="26" t="s">
+      <c r="D24" s="25" t="s">
         <v>60</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F24" s="45" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F24" s="44" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="44"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="45" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C25" s="43">
+        <v>44274</v>
+      </c>
+      <c r="D25" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F25" s="44" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="44"/>
-      <c r="D26" s="26"/>
+      <c r="C26" s="43">
+        <v>44275</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>66</v>
+      </c>
       <c r="E26" s="7"/>
-      <c r="F26" s="45" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F26" s="44" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="44"/>
-      <c r="D27" s="26"/>
+      <c r="C27" s="43">
+        <v>44276</v>
+      </c>
+      <c r="D27" s="25"/>
       <c r="E27" s="7"/>
-      <c r="F27" s="45" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C28" s="44"/>
-    </row>
-    <row r="29" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C29" s="44"/>
-    </row>
-    <row r="30" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C30" s="44"/>
-    </row>
-    <row r="31" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C31" s="44"/>
-    </row>
-    <row r="32" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C32" s="44"/>
+      <c r="F27" s="44" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="43">
+        <v>44277</v>
+      </c>
+      <c r="D28" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F28" s="44" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="43">
+        <v>44278</v>
+      </c>
+      <c r="D29" s="25"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="44" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="43">
+        <v>44279</v>
+      </c>
+      <c r="D30" s="25"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="44" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="43"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="44" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" s="43"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="44" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" s="43"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="44" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" s="43"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="44" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" s="43"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="44" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" s="43"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="44" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" s="43"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="44" t="s">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2138,53 +2376,53 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="40" t="s">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="39" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="40" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="39" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="40" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="39" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="40" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="39" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="40" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="39" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="40" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="39" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="40" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="39" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="40" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="39" t="s">
         <v>22</v>
       </c>
     </row>

--- a/Documentation/Journaux/OwnJournal de bord (2).xlsx
+++ b/Documentation/Journaux/OwnJournal de bord (2).xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\developpement\Bataille-Navale-2021\Documentation\Journaux\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arlindo.TAVARES-VARE\Bataille-Navale-2021\Documentation\Journaux\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19365" windowHeight="9195"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19368" windowHeight="9192" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Journal de travail" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="76">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -242,6 +242,21 @@
   </si>
   <si>
     <t>implémentation + documentation</t>
+  </si>
+  <si>
+    <t>MA-21</t>
+  </si>
+  <si>
+    <t>debug (aide de Loïc Viret) et implémentation du code</t>
+  </si>
+  <si>
+    <t>debug avec Loïc Viret + implémentation</t>
+  </si>
+  <si>
+    <t>peine à comprendre comment implémenter les logs</t>
+  </si>
+  <si>
+    <t>Partie logs incomplète, difficulté à avancer</t>
   </si>
 </sst>
 </file>
@@ -768,6 +783,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -783,7 +799,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Neutre" xfId="1" builtinId="28"/>
@@ -1081,27 +1096,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView topLeftCell="E26" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="29.42578125" defaultRowHeight="41.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="29.44140625" defaultRowHeight="41.25" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="6" max="6" width="74" customWidth="1"/>
-    <col min="7" max="7" width="87.42578125" customWidth="1"/>
+    <col min="7" max="7" width="87.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="51" t="s">
+    <row r="1" spans="1:8" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="53"/>
-    </row>
-    <row r="2" spans="1:8" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="54"/>
+    </row>
+    <row r="2" spans="1:8" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1121,7 +1136,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="12">
         <v>44242</v>
       </c>
@@ -1141,7 +1156,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="13">
         <v>44244</v>
       </c>
@@ -1161,7 +1176,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="13">
         <v>44244</v>
       </c>
@@ -1181,7 +1196,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="13">
         <v>44245</v>
       </c>
@@ -1201,7 +1216,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="13">
         <v>44246</v>
       </c>
@@ -1221,7 +1236,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="13">
         <v>44256</v>
       </c>
@@ -1241,7 +1256,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="13">
         <v>44257</v>
       </c>
@@ -1259,7 +1274,7 @@
       </c>
       <c r="G9" s="17"/>
     </row>
-    <row r="10" spans="1:8" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="13">
         <v>44258</v>
       </c>
@@ -1277,7 +1292,7 @@
       </c>
       <c r="G10" s="17"/>
     </row>
-    <row r="11" spans="1:8" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="13">
         <v>44258</v>
       </c>
@@ -1295,7 +1310,7 @@
       </c>
       <c r="G11" s="17"/>
     </row>
-    <row r="12" spans="1:8" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="13">
         <v>44259</v>
       </c>
@@ -1313,7 +1328,7 @@
       </c>
       <c r="G12" s="17"/>
     </row>
-    <row r="13" spans="1:8" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="26">
         <v>44260</v>
       </c>
@@ -1331,7 +1346,7 @@
       </c>
       <c r="G13" s="17"/>
     </row>
-    <row r="14" spans="1:8" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="27"/>
       <c r="B14" s="26">
         <v>44261</v>
@@ -1351,7 +1366,7 @@
       <c r="G14" s="31"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="26">
         <v>44262</v>
       </c>
@@ -1369,7 +1384,7 @@
       </c>
       <c r="G15" s="32"/>
     </row>
-    <row r="16" spans="1:8" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="26">
         <v>44263</v>
       </c>
@@ -1387,7 +1402,7 @@
       </c>
       <c r="G16" s="31"/>
     </row>
-    <row r="17" spans="2:7" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:7" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="26">
         <v>44264</v>
       </c>
@@ -1405,7 +1420,7 @@
       </c>
       <c r="G17" s="31"/>
     </row>
-    <row r="18" spans="2:7" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:7" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="26">
         <v>44265</v>
       </c>
@@ -1423,7 +1438,7 @@
       </c>
       <c r="G18" s="31"/>
     </row>
-    <row r="19" spans="2:7" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:7" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="26">
         <v>44266</v>
       </c>
@@ -1441,7 +1456,7 @@
       </c>
       <c r="G19" s="31"/>
     </row>
-    <row r="20" spans="2:7" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="26">
         <v>44267</v>
       </c>
@@ -1459,7 +1474,7 @@
       </c>
       <c r="G20" s="31"/>
     </row>
-    <row r="21" spans="2:7" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="13">
         <v>44268</v>
       </c>
@@ -1479,7 +1494,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="13">
         <v>44271</v>
       </c>
@@ -1497,7 +1512,7 @@
       </c>
       <c r="G22" s="31"/>
     </row>
-    <row r="23" spans="2:7" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="13">
         <v>44272</v>
       </c>
@@ -1517,7 +1532,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="2:7" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:7" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="26">
         <v>44272</v>
       </c>
@@ -1537,7 +1552,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:7" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="26">
         <v>44273</v>
       </c>
@@ -1557,7 +1572,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="2:7" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:7" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="26">
         <v>44274</v>
       </c>
@@ -1577,7 +1592,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="2:7" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:7" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B27" s="26">
         <v>44275</v>
       </c>
@@ -1597,7 +1612,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="2:7" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:7" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="26">
         <v>44276</v>
       </c>
@@ -1617,7 +1632,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="2:7" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:7" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="26">
         <v>44277</v>
       </c>
@@ -1637,55 +1652,77 @@
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="2:7" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:7" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B30" s="26">
         <v>44278</v>
       </c>
       <c r="C30" s="41">
         <v>5</v>
       </c>
-      <c r="D30" s="33"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="34"/>
+      <c r="D30" s="33">
+        <v>2</v>
+      </c>
+      <c r="E30" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30" s="34" t="s">
+        <v>71</v>
+      </c>
       <c r="G30" s="35"/>
     </row>
-    <row r="31" spans="2:7" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:7" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B31" s="26">
         <v>44279</v>
       </c>
       <c r="C31" s="41">
         <v>5</v>
       </c>
-      <c r="D31" s="33"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="35"/>
-    </row>
-    <row r="32" spans="2:7" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D31" s="33">
+        <v>1.5</v>
+      </c>
+      <c r="E31" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="F31" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="G31" s="35" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="26">
         <v>44280</v>
       </c>
       <c r="C32" s="41">
         <v>5</v>
       </c>
-      <c r="D32" s="33"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="34"/>
+      <c r="D32" s="33">
+        <v>3</v>
+      </c>
+      <c r="E32" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" s="34" t="s">
+        <v>27</v>
+      </c>
       <c r="G32" s="35"/>
     </row>
-    <row r="33" spans="1:7" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="26">
         <v>44281</v>
       </c>
       <c r="C33" s="41">
         <v>5</v>
       </c>
-      <c r="D33" s="33"/>
+      <c r="D33" s="33">
+        <v>3</v>
+      </c>
       <c r="E33" s="21"/>
       <c r="F33" s="34"/>
       <c r="G33" s="35"/>
     </row>
-    <row r="34" spans="1:7" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" s="26">
         <v>44282</v>
       </c>
@@ -1697,7 +1734,7 @@
       <c r="F34" s="34"/>
       <c r="G34" s="35"/>
     </row>
-    <row r="35" spans="1:7" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B35" s="26">
         <v>44283</v>
       </c>
@@ -1709,7 +1746,7 @@
       <c r="F35" s="34"/>
       <c r="G35" s="35"/>
     </row>
-    <row r="36" spans="1:7" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B36" s="26">
         <v>44284</v>
       </c>
@@ -1721,7 +1758,7 @@
       <c r="F36" s="34"/>
       <c r="G36" s="35"/>
     </row>
-    <row r="37" spans="1:7" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="26">
         <v>44285</v>
       </c>
@@ -1733,7 +1770,7 @@
       <c r="F37" s="34"/>
       <c r="G37" s="35"/>
     </row>
-    <row r="38" spans="1:7" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B38" s="26">
         <v>44286</v>
       </c>
@@ -1745,8 +1782,8 @@
       <c r="F38" s="34"/>
       <c r="G38" s="35"/>
     </row>
-    <row r="39" spans="1:7" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="56"/>
+    <row r="39" spans="1:7" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="51"/>
       <c r="B39" s="26">
         <v>44287</v>
       </c>
@@ -1758,7 +1795,7 @@
       <c r="F39" s="48"/>
       <c r="G39" s="49"/>
     </row>
-    <row r="40" spans="1:7" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B40" s="43">
         <v>44288</v>
       </c>
@@ -1770,7 +1807,7 @@
       <c r="F40" s="48"/>
       <c r="G40" s="49"/>
     </row>
-    <row r="41" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="36"/>
       <c r="C41" s="36"/>
       <c r="D41" s="37"/>
@@ -1798,28 +1835,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F37"/>
+  <dimension ref="B1:F39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="B28" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="29.28515625" defaultRowHeight="48" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="29.33203125" defaultRowHeight="48" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="57.140625" customWidth="1"/>
-    <col min="5" max="5" width="48.28515625" customWidth="1"/>
+    <col min="4" max="4" width="57.109375" customWidth="1"/>
+    <col min="5" max="5" width="48.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="54" t="s">
+    <row r="1" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="55"/>
-    </row>
-    <row r="2" spans="2:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="56"/>
+    </row>
+    <row r="2" spans="2:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="19" t="s">
         <v>6</v>
       </c>
@@ -1836,7 +1873,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="5" t="s">
         <v>26</v>
       </c>
@@ -1853,7 +1890,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="5" t="s">
         <v>26</v>
       </c>
@@ -1870,7 +1907,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="5" t="s">
         <v>26</v>
       </c>
@@ -1887,7 +1924,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="5" t="s">
         <v>26</v>
       </c>
@@ -1904,7 +1941,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="5" t="s">
         <v>26</v>
       </c>
@@ -1921,7 +1958,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="5" t="s">
         <v>26</v>
       </c>
@@ -1938,7 +1975,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="5" t="s">
         <v>26</v>
       </c>
@@ -1955,7 +1992,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="5" t="s">
         <v>26</v>
       </c>
@@ -1968,7 +2005,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="5" t="s">
         <v>26</v>
       </c>
@@ -1983,7 +2020,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="5" t="s">
         <v>26</v>
       </c>
@@ -2000,7 +2037,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="5" t="s">
         <v>26</v>
       </c>
@@ -2015,7 +2052,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="5" t="s">
         <v>26</v>
       </c>
@@ -2030,7 +2067,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="5" t="s">
         <v>26</v>
       </c>
@@ -2047,7 +2084,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="5" t="s">
         <v>26</v>
       </c>
@@ -2062,7 +2099,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="5" t="s">
         <v>26</v>
       </c>
@@ -2077,7 +2114,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="5" t="s">
         <v>26</v>
       </c>
@@ -2092,7 +2129,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="5" t="s">
         <v>26</v>
       </c>
@@ -2109,7 +2146,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="5" t="s">
         <v>26</v>
       </c>
@@ -2126,7 +2163,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="5" t="s">
         <v>26</v>
       </c>
@@ -2143,7 +2180,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="5" t="s">
         <v>26</v>
       </c>
@@ -2160,7 +2197,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="5" t="s">
         <v>26</v>
       </c>
@@ -2177,7 +2214,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="5" t="s">
         <v>26</v>
       </c>
@@ -2194,7 +2231,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="5" t="s">
         <v>26</v>
       </c>
@@ -2211,7 +2248,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="5" t="s">
         <v>26</v>
       </c>
@@ -2226,20 +2263,24 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B27" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C27" s="43">
         <v>44276</v>
       </c>
-      <c r="D27" s="25"/>
-      <c r="E27" s="7"/>
+      <c r="D27" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>74</v>
+      </c>
       <c r="F27" s="44" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="5" t="s">
         <v>26</v>
       </c>
@@ -2256,7 +2297,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="5" t="s">
         <v>26</v>
       </c>
@@ -2264,98 +2305,144 @@
         <v>44278</v>
       </c>
       <c r="D29" s="25"/>
-      <c r="E29" s="7"/>
+      <c r="E29" s="7" t="s">
+        <v>75</v>
+      </c>
       <c r="F29" s="44" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B30" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C30" s="43">
         <v>44279</v>
       </c>
-      <c r="D30" s="25"/>
+      <c r="D30" s="25" t="s">
+        <v>73</v>
+      </c>
       <c r="E30" s="7"/>
       <c r="F30" s="44" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B31" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="43"/>
+      <c r="C31" s="43">
+        <v>44280</v>
+      </c>
       <c r="D31" s="25"/>
       <c r="E31" s="7"/>
       <c r="F31" s="44" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="43"/>
+      <c r="C32" s="43">
+        <v>44281</v>
+      </c>
       <c r="D32" s="25"/>
       <c r="E32" s="7"/>
       <c r="F32" s="44" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="43"/>
+      <c r="C33" s="43">
+        <v>44282</v>
+      </c>
       <c r="D33" s="25"/>
       <c r="E33" s="7"/>
       <c r="F33" s="44" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C34" s="43"/>
+      <c r="C34" s="43">
+        <v>44283</v>
+      </c>
       <c r="D34" s="25"/>
       <c r="E34" s="7"/>
       <c r="F34" s="44" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B35" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C35" s="43"/>
-      <c r="D35" s="25"/>
+      <c r="C35" s="43">
+        <v>44284</v>
+      </c>
+      <c r="D35" s="25" t="s">
+        <v>38</v>
+      </c>
       <c r="E35" s="7"/>
       <c r="F35" s="44" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B36" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C36" s="43"/>
+      <c r="C36" s="43">
+        <v>44285</v>
+      </c>
       <c r="D36" s="25"/>
       <c r="E36" s="7"/>
       <c r="F36" s="44" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C37" s="43"/>
+      <c r="C37" s="43">
+        <v>44286</v>
+      </c>
       <c r="D37" s="25"/>
       <c r="E37" s="7"/>
       <c r="F37" s="44" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C38" s="43">
+        <v>44287</v>
+      </c>
+      <c r="D38" s="25"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="44" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C39" s="43">
+        <v>44288</v>
+      </c>
+      <c r="D39" s="25"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="44" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2376,52 +2463,52 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="38" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="39" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="39" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="39" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="39" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="39" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="39" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="39" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="39" t="s">
         <v>22</v>
       </c>

--- a/Documentation/Journaux/OwnJournal de bord (2).xlsx
+++ b/Documentation/Journaux/OwnJournal de bord (2).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19368" windowHeight="9192" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19368" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="Journal de travail" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="82">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -257,6 +257,24 @@
   </si>
   <si>
     <t>Partie logs incomplète, difficulté à avancer</t>
+  </si>
+  <si>
+    <t>implémentation des grilles aléatoires</t>
+  </si>
+  <si>
+    <t>début implémentation des grilles aléatoires</t>
+  </si>
+  <si>
+    <t>analyse fonctionnement grilles aléatoires + début implémentation</t>
+  </si>
+  <si>
+    <t>MA-20 + ICT 431</t>
+  </si>
+  <si>
+    <t>implémemtation grilles aléatoires + documentation dossier BN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">documentation </t>
   </si>
 </sst>
 </file>
@@ -1096,8 +1114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView topLeftCell="E26" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" topLeftCell="E32" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="29.44140625" defaultRowHeight="41.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1603,7 +1621,7 @@
         <v>1</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F27" s="34" t="s">
         <v>62</v>
@@ -1623,7 +1641,7 @@
         <v>0.75</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F28" s="34" t="s">
         <v>62</v>
@@ -1643,7 +1661,7 @@
         <v>0.75</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F29" s="34" t="s">
         <v>24</v>
@@ -1718,7 +1736,9 @@
       <c r="D33" s="33">
         <v>3</v>
       </c>
-      <c r="E33" s="21"/>
+      <c r="E33" s="21" t="s">
+        <v>22</v>
+      </c>
       <c r="F33" s="34"/>
       <c r="G33" s="35"/>
     </row>
@@ -1729,10 +1749,18 @@
       <c r="C34" s="41">
         <v>5</v>
       </c>
-      <c r="D34" s="33"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="35"/>
+      <c r="D34" s="33">
+        <v>2.5</v>
+      </c>
+      <c r="E34" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="F34" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="G34" s="35" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="35" spans="1:7" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B35" s="26">
@@ -1741,8 +1769,12 @@
       <c r="C35" s="41">
         <v>5</v>
       </c>
-      <c r="D35" s="33"/>
-      <c r="E35" s="21"/>
+      <c r="D35" s="33">
+        <v>3.5</v>
+      </c>
+      <c r="E35" s="21" t="s">
+        <v>18</v>
+      </c>
       <c r="F35" s="34"/>
       <c r="G35" s="35"/>
     </row>
@@ -1753,8 +1785,12 @@
       <c r="C36" s="41">
         <v>6</v>
       </c>
-      <c r="D36" s="33"/>
-      <c r="E36" s="21"/>
+      <c r="D36" s="33">
+        <v>3.5</v>
+      </c>
+      <c r="E36" s="21" t="s">
+        <v>18</v>
+      </c>
       <c r="F36" s="34"/>
       <c r="G36" s="35"/>
     </row>
@@ -1765,7 +1801,9 @@
       <c r="C37" s="41">
         <v>6</v>
       </c>
-      <c r="D37" s="33"/>
+      <c r="D37" s="33">
+        <v>3</v>
+      </c>
       <c r="E37" s="21"/>
       <c r="F37" s="34"/>
       <c r="G37" s="35"/>
@@ -1777,7 +1815,9 @@
       <c r="C38" s="41">
         <v>6</v>
       </c>
-      <c r="D38" s="33"/>
+      <c r="D38" s="33">
+        <v>4.5</v>
+      </c>
       <c r="E38" s="21"/>
       <c r="F38" s="34"/>
       <c r="G38" s="35"/>
@@ -1790,10 +1830,18 @@
       <c r="C39" s="45">
         <v>6</v>
       </c>
-      <c r="D39" s="46"/>
-      <c r="E39" s="47"/>
-      <c r="F39" s="48"/>
-      <c r="G39" s="49"/>
+      <c r="D39" s="46">
+        <v>5</v>
+      </c>
+      <c r="E39" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="F39" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="G39" s="49" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="40" spans="1:7" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B40" s="43">
@@ -1802,10 +1850,18 @@
       <c r="C40" s="45">
         <v>6</v>
       </c>
-      <c r="D40" s="46"/>
-      <c r="E40" s="47"/>
-      <c r="F40" s="48"/>
-      <c r="G40" s="49"/>
+      <c r="D40" s="46">
+        <v>7</v>
+      </c>
+      <c r="E40" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="G40" s="49" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="41" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="36"/>
@@ -1837,8 +1893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B28" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="29.33203125" defaultRowHeight="48" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2427,7 +2483,9 @@
       <c r="C38" s="43">
         <v>44287</v>
       </c>
-      <c r="D38" s="25"/>
+      <c r="D38" s="25" t="s">
+        <v>77</v>
+      </c>
       <c r="E38" s="7"/>
       <c r="F38" s="44" t="s">
         <v>25</v>
@@ -2440,7 +2498,9 @@
       <c r="C39" s="43">
         <v>44288</v>
       </c>
-      <c r="D39" s="25"/>
+      <c r="D39" s="25" t="s">
+        <v>76</v>
+      </c>
       <c r="E39" s="7"/>
       <c r="F39" s="44" t="s">
         <v>25</v>
